--- a/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10235</v>
+        <v>7616</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003692232706145952</v>
+        <v>0.003692232706145953</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02550036740444989</v>
+        <v>0.01897530944265467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12027</v>
+        <v>11505</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009194388838641673</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03317630317605207</v>
+        <v>0.0317370035637717</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>4815</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1475</v>
+        <v>1489</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13324</v>
+        <v>14383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006303354993605063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001931243942351086</v>
+        <v>0.001949283009838015</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01744282159273711</v>
+        <v>0.01882829256017838</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10445</v>
+        <v>10962</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.007168326342247983</v>
+        <v>0.007168326342247985</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.026021971746796</v>
+        <v>0.02731208806658684</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9954</v>
+        <v>11151</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007876735742005972</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02745895245407792</v>
+        <v>0.03076133530162443</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -854,19 +854,19 @@
         <v>5733</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13678</v>
+        <v>14514</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007504511562698024</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001909193460382465</v>
+        <v>0.001907880782683817</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01790520756245262</v>
+        <v>0.01899977577512883</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>29214</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15121</v>
+        <v>14831</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49048</v>
+        <v>52466</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.07278602427213371</v>
+        <v>0.07278602427213374</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03767240666472504</v>
+        <v>0.03695014758612111</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1222013875686195</v>
+        <v>0.1307151696878118</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -904,19 +904,19 @@
         <v>29806</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17427</v>
+        <v>17079</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46583</v>
+        <v>46508</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08222063004161773</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0480739748624515</v>
+        <v>0.04711273121777915</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1284994249056643</v>
+        <v>0.1282923986292976</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -925,19 +925,19 @@
         <v>59020</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40621</v>
+        <v>39328</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84532</v>
+        <v>85397</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07726334349115702</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0531763557095953</v>
+        <v>0.0514834866072196</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1106601348960014</v>
+        <v>0.1117923500956752</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>108760</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80629</v>
+        <v>82820</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139185</v>
+        <v>138722</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2709708621771748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2008835686617936</v>
+        <v>0.2063419166423163</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3467720534540421</v>
+        <v>0.345619733902982</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -975,19 +975,19 @@
         <v>64283</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47392</v>
+        <v>45850</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84895</v>
+        <v>84922</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1773275738582436</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1307316938821874</v>
+        <v>0.1264787490005929</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2341854409594097</v>
+        <v>0.2342608292781096</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -996,19 +996,19 @@
         <v>173044</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>139698</v>
+        <v>143100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>207829</v>
+        <v>210795</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2265311786581228</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1828784232572366</v>
+        <v>0.1873313412597243</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2720676126766546</v>
+        <v>0.275950460980963</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>259039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>230428</v>
+        <v>229270</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>292783</v>
+        <v>289090</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6453825545022974</v>
+        <v>0.6453825545022976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5740988354897362</v>
+        <v>0.57121549561114</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7294545308318093</v>
+        <v>0.7202533619357683</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>147</v>
@@ -1046,19 +1046,19 @@
         <v>262234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>236417</v>
+        <v>235999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>282834</v>
+        <v>283559</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7233806715194909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6521637950360916</v>
+        <v>0.6510088177255198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7802045368309257</v>
+        <v>0.7822052675496983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>254</v>
@@ -1067,19 +1067,19 @@
         <v>521274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>482504</v>
+        <v>481318</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>559191</v>
+        <v>557215</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6823976112944171</v>
+        <v>0.682397611294417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6316437900047306</v>
+        <v>0.6300910545102566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7320348900903627</v>
+        <v>0.7294480561672801</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4831</v>
+        <v>6456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002496625676771702</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01019519980461532</v>
+        <v>0.01362432770694655</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8992</v>
+        <v>8994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003586852232960404</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01797580661926115</v>
+        <v>0.01797877713668279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12168</v>
+        <v>11592</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003056481166143886</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01249153282019143</v>
+        <v>0.01190016743246506</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>9791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4089</v>
+        <v>4233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20988</v>
+        <v>20302</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02066098097017768</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008628815360628154</v>
+        <v>0.008931856577013541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04428860692311187</v>
+        <v>0.04284184421204454</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1263,19 +1263,19 @@
         <v>3304</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8831</v>
+        <v>8548</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006604533031580838</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001924288960158682</v>
+        <v>0.001932667023871254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01765414078481658</v>
+        <v>0.01708898452093803</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1284,19 +1284,19 @@
         <v>13095</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6364</v>
+        <v>6198</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24200</v>
+        <v>24131</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01344268354857676</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006533053297297161</v>
+        <v>0.006362392217068318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02484294871938613</v>
+        <v>0.02477195632017737</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>36438</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24408</v>
+        <v>24674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54204</v>
+        <v>54312</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07689198834832356</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05150635208414614</v>
+        <v>0.05206670251488738</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1143826058076372</v>
+        <v>0.114610637724509</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1334,19 +1334,19 @@
         <v>18374</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11116</v>
+        <v>11614</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27608</v>
+        <v>27465</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03673183919258415</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.022222815148216</v>
+        <v>0.0232166674941261</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05519067069917617</v>
+        <v>0.05490512601042025</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>42</v>
@@ -1355,19 +1355,19 @@
         <v>54812</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>41027</v>
+        <v>40028</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73253</v>
+        <v>74652</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05626886205295311</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04211719700616176</v>
+        <v>0.04109178793433812</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07519922522931467</v>
+        <v>0.07663536012485853</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>104192</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>82207</v>
+        <v>81049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128839</v>
+        <v>127959</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2198676806697407</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1734747522958752</v>
+        <v>0.1710308006207251</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2718792278338252</v>
+        <v>0.2700202688412707</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -1405,19 +1405,19 @@
         <v>92963</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75353</v>
+        <v>75171</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110373</v>
+        <v>111766</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1858411628572637</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1506374370502928</v>
+        <v>0.1502739773647274</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.22064424927962</v>
+        <v>0.2234306309935117</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>159</v>
@@ -1426,19 +1426,19 @@
         <v>197155</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>167448</v>
+        <v>170530</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>226825</v>
+        <v>228085</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2023943099529863</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1718976780465274</v>
+        <v>0.1750611344519913</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2328522130662099</v>
+        <v>0.2341461072761275</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>322281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>295633</v>
+        <v>297782</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>344608</v>
+        <v>346103</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6800827243349864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6238489375894277</v>
+        <v>0.628385574627671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.727197343852059</v>
+        <v>0.7303513276352235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>347</v>
@@ -1476,19 +1476,19 @@
         <v>383794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>364479</v>
+        <v>361411</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>403623</v>
+        <v>402719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7672356126856109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7286243431481978</v>
+        <v>0.7224902792349445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8068768978501966</v>
+        <v>0.8050701997361969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>546</v>
@@ -1497,19 +1497,19 @@
         <v>706075</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>672759</v>
+        <v>671078</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>737974</v>
+        <v>737497</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7248376632793401</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.690636678662958</v>
+        <v>0.6889111520731893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7575852117951658</v>
+        <v>0.7570950898860852</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>3763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10625</v>
+        <v>10357</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006119892218350562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001350214869056143</v>
+        <v>0.001345525071805647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01727832562860418</v>
+        <v>0.01684323735797094</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1622,19 +1622,19 @@
         <v>2375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6005</v>
+        <v>6594</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003837035489374726</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00115701303201304</v>
+        <v>0.001150202989728925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009701163683417838</v>
+        <v>0.01065236782045204</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1643,19 +1643,19 @@
         <v>6138</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2513</v>
+        <v>2268</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13134</v>
+        <v>13755</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004974706871047774</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002036262130476309</v>
+        <v>0.001838007133077127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01064383099178039</v>
+        <v>0.01114715310086808</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>11554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5902</v>
+        <v>5967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19519</v>
+        <v>19896</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01878966412585869</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009597121355029955</v>
+        <v>0.009704279412145215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03174140628651374</v>
+        <v>0.0323550793362121</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1693,19 +1693,19 @@
         <v>3127</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>944</v>
+        <v>740</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7689</v>
+        <v>7929</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.005052225719686895</v>
+        <v>0.005052225719686894</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001524466985224399</v>
+        <v>0.001195037032426829</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01242232077704572</v>
+        <v>0.01280931076102702</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1714,19 +1714,19 @@
         <v>14681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8200</v>
+        <v>8681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23650</v>
+        <v>23477</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01189833670590257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006645584271477021</v>
+        <v>0.007035601197609909</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01916686911773281</v>
+        <v>0.01902654185361815</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>40114</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27486</v>
+        <v>28841</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55393</v>
+        <v>55525</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06523359913798689</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04469737028428058</v>
+        <v>0.04690109931955184</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09008097281079334</v>
+        <v>0.09029531174586623</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -1764,19 +1764,19 @@
         <v>14618</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9284</v>
+        <v>9369</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22070</v>
+        <v>22972</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02361527452778481</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01499792296321867</v>
+        <v>0.01513542008624803</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03565537980977163</v>
+        <v>0.0371127720742913</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>53</v>
@@ -1785,19 +1785,19 @@
         <v>54731</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>40758</v>
+        <v>40346</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>70734</v>
+        <v>70857</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0443559439974137</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03303148691977731</v>
+        <v>0.03269797353639167</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0573247980356475</v>
+        <v>0.05742438905564189</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>134193</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112988</v>
+        <v>115087</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156889</v>
+        <v>155556</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2182270586955638</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.183742647506084</v>
+        <v>0.1871559551304914</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2551343884501607</v>
+        <v>0.2529682353405853</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>183</v>
@@ -1835,19 +1835,19 @@
         <v>125460</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>109394</v>
+        <v>109093</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>142857</v>
+        <v>144053</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2026866033007594</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.176730186313659</v>
+        <v>0.1762441820176169</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2307923758942797</v>
+        <v>0.2327239667493479</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>305</v>
@@ -1856,19 +1856,19 @@
         <v>259653</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>234114</v>
+        <v>229165</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>288237</v>
+        <v>285800</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2104312554887078</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1897331607218336</v>
+        <v>0.1857222680083701</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.233596471788371</v>
+        <v>0.2316216442932953</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>425300</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>401899</v>
+        <v>398487</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>451957</v>
+        <v>447870</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6916297858222402</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6535738546920729</v>
+        <v>0.6480255480169119</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7349791743659936</v>
+        <v>0.7283332397727755</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>633</v>
@@ -1906,19 +1906,19 @@
         <v>473406</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>455841</v>
+        <v>454790</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>490070</v>
+        <v>490678</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7648088609623941</v>
+        <v>0.7648088609623942</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.73643166587329</v>
+        <v>0.7347332806596105</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.791730293468123</v>
+        <v>0.7927131098341733</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1004</v>
@@ -1927,19 +1927,19 @@
         <v>898706</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>868921</v>
+        <v>868547</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>927540</v>
+        <v>930137</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7283397569369282</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7042004324053577</v>
+        <v>0.7038979561539767</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7517075593099261</v>
+        <v>0.7538120682169698</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6601</v>
+        <v>5046</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002365263797935895</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009504376045901909</v>
+        <v>0.007265651775641436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2052,19 +2052,19 @@
         <v>2508</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>614</v>
+        <v>990</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6256</v>
+        <v>6274</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00342467398837169</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0008388668555398506</v>
+        <v>0.00135151980530886</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008541175714985695</v>
+        <v>0.008566129617747026</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2073,19 +2073,19 @@
         <v>4151</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1668</v>
+        <v>1523</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9542</v>
+        <v>8401</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002909018277411838</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001168673021717673</v>
+        <v>0.001067475368786337</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006686808115166561</v>
+        <v>0.005887739820755417</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>7950</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3694</v>
+        <v>3460</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14791</v>
+        <v>15165</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01144642653557847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005318258998629373</v>
+        <v>0.004981245494887558</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02129568612197358</v>
+        <v>0.02183434939766685</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4804</v>
+        <v>4840</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.001891304936382913</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.006559095270717999</v>
+        <v>0.00660788328567872</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -2144,19 +2144,19 @@
         <v>9335</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4596</v>
+        <v>4566</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16566</v>
+        <v>16875</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.006542150346425847</v>
+        <v>0.006542150346425848</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003221016555120673</v>
+        <v>0.003199725128246936</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01160934293388195</v>
+        <v>0.01182569393645448</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>31804</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21568</v>
+        <v>21707</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44466</v>
+        <v>45710</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04579041657330299</v>
+        <v>0.045790416573303</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0310527430436984</v>
+        <v>0.0312534327722981</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06402066910757696</v>
+        <v>0.06581231109946062</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -2194,19 +2194,19 @@
         <v>38373</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29703</v>
+        <v>29777</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49882</v>
+        <v>49344</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05239389206380145</v>
+        <v>0.05239389206380143</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04055567246469127</v>
+        <v>0.04065621915579645</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06810784827355881</v>
+        <v>0.06737339207450403</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>86</v>
@@ -2215,19 +2215,19 @@
         <v>70177</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>56191</v>
+        <v>56083</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>86271</v>
+        <v>85924</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04917972640860963</v>
+        <v>0.04917972640860964</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03937864474620096</v>
+        <v>0.03930280407082945</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06045863531135935</v>
+        <v>0.06021495605787896</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>156223</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133075</v>
+        <v>136498</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>179956</v>
+        <v>180527</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2249270595686535</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1915980186678472</v>
+        <v>0.1965276779864872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2590972519576674</v>
+        <v>0.2599187723871219</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>248</v>
@@ -2265,19 +2265,19 @@
         <v>151580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>132811</v>
+        <v>135010</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>167328</v>
+        <v>168350</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2069636135228894</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1813369423614809</v>
+        <v>0.1843393375111184</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2284661284682553</v>
+        <v>0.2298610562594502</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>401</v>
@@ -2286,19 +2286,19 @@
         <v>307803</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>280442</v>
+        <v>277835</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>336127</v>
+        <v>333467</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2157071140344401</v>
+        <v>0.2157071140344402</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1965325398208444</v>
+        <v>0.1947057532438798</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2355565271930497</v>
+        <v>0.233692641280844</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>496931</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>471839</v>
+        <v>469670</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>520158</v>
+        <v>518054</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7154708335245292</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6793439999939579</v>
+        <v>0.676220489586956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7489129230940095</v>
+        <v>0.7458837903135559</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>824</v>
@@ -2336,19 +2336,19 @@
         <v>538552</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>520738</v>
+        <v>518845</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>558224</v>
+        <v>556939</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7353265154885547</v>
+        <v>0.7353265154885544</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7110039059565858</v>
+        <v>0.7084197488920088</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7621869087732962</v>
+        <v>0.7604318683034141</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1292</v>
@@ -2357,19 +2357,19 @@
         <v>1035482</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1004379</v>
+        <v>1007034</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1062885</v>
+        <v>1068365</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7256619909331126</v>
+        <v>0.7256619909331127</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7038653983988454</v>
+        <v>0.7057256550590306</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.744866124844534</v>
+        <v>0.7487064763917648</v>
       </c>
     </row>
     <row r="27">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7040</v>
+        <v>7133</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003294530392931757</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01167809806235075</v>
+        <v>0.01183124553089767</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2482,19 +2482,19 @@
         <v>2044</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5504</v>
+        <v>5410</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003370533589528622</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001067863325447668</v>
+        <v>0.001063754219099812</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009076388911878647</v>
+        <v>0.008920605089623449</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2503,19 +2503,19 @@
         <v>4030</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9185</v>
+        <v>8813</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003332643333353254</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001121193623805593</v>
+        <v>0.001114630023416645</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00759545143870088</v>
+        <v>0.007287503156850871</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>6437</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2859</v>
+        <v>2831</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13293</v>
+        <v>12852</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01067729591508654</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004742970694971601</v>
+        <v>0.00469627100054975</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02204954781096387</v>
+        <v>0.02131806064610002</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2553,19 +2553,19 @@
         <v>4564</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1989</v>
+        <v>1826</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8769</v>
+        <v>8865</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007525560706920033</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003279402915583006</v>
+        <v>0.003010729636482652</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01445984145039303</v>
+        <v>0.01461894492219855</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -2574,19 +2574,19 @@
         <v>11001</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6466</v>
+        <v>6381</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18281</v>
+        <v>18899</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009096811125080522</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005346875413429456</v>
+        <v>0.005276577695746375</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0151172771473978</v>
+        <v>0.01562784218600731</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>40446</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29946</v>
+        <v>29832</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54872</v>
+        <v>54349</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06708923617756166</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04967167173092382</v>
+        <v>0.0494832912709455</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09101718044853774</v>
+        <v>0.0901492457806813</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -2624,19 +2624,19 @@
         <v>24255</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18166</v>
+        <v>17619</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>33140</v>
+        <v>32250</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03999675230625871</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02995595397804945</v>
+        <v>0.02905437744504648</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05464950762805362</v>
+        <v>0.05318115854602194</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>79</v>
@@ -2645,19 +2645,19 @@
         <v>64701</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>51979</v>
+        <v>50341</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81142</v>
+        <v>80418</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05350330466557165</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04298328397707193</v>
+        <v>0.04162862837744229</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06709905050628381</v>
+        <v>0.06650050239221413</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>128380</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>109145</v>
+        <v>109096</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>147941</v>
+        <v>149170</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2129466854904165</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1810418414501314</v>
+        <v>0.1809604642197819</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2453929700229602</v>
+        <v>0.2474314997307309</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>234</v>
@@ -2695,19 +2695,19 @@
         <v>133339</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>119334</v>
+        <v>117558</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>150258</v>
+        <v>149258</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2198799549626468</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1967854428850624</v>
+        <v>0.1938564244453962</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2477805175488504</v>
+        <v>0.2461306360202458</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>378</v>
@@ -2716,19 +2716,19 @@
         <v>261719</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>238924</v>
+        <v>237876</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>285479</v>
+        <v>286219</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2164234772327811</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1975739334053917</v>
+        <v>0.1967072845634728</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2360720211618065</v>
+        <v>0.2366840551045469</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>425624</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>402555</v>
+        <v>404950</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>447416</v>
+        <v>446282</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7059922520240036</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6677284044144302</v>
+        <v>0.6717005870059245</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.742140542022939</v>
+        <v>0.7402588400961606</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>716</v>
@@ -2766,19 +2766,19 @@
         <v>442215</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>422874</v>
+        <v>426511</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>456874</v>
+        <v>460798</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7292271984346458</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6973329377320018</v>
+        <v>0.703331099668054</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7534005674133721</v>
+        <v>0.759871772056065</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1178</v>
@@ -2787,19 +2787,19 @@
         <v>867839</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>842898</v>
+        <v>842423</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>893976</v>
+        <v>893863</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7176437636432137</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6970195291225634</v>
+        <v>0.6966265675306461</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7392572157084522</v>
+        <v>0.739164269914988</v>
       </c>
     </row>
     <row r="33">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3968</v>
+        <v>4507</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003268526204197715</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.009808132303511834</v>
+        <v>0.01113846413740279</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2433</v>
+        <v>2736</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0009959130934095173</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.005618376181712697</v>
+        <v>0.00631787999725533</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2936,16 +2936,16 @@
         <v>432</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5063</v>
+        <v>5178</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002093606411306285</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.000515282235049962</v>
+        <v>0.0005154148995184648</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.006043682748142772</v>
+        <v>0.006181341620392911</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>3736</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8388</v>
+        <v>8200</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.00923338659216634</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00359819643875261</v>
+        <v>0.003564047208278051</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0207326330833718</v>
+        <v>0.02026618325782105</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2983,19 +2983,19 @@
         <v>2792</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>976</v>
+        <v>942</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6325</v>
+        <v>5917</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.006447396926229449</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002253686885970766</v>
+        <v>0.002174442439897587</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0146054175503321</v>
+        <v>0.01366265839002268</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -3004,19 +3004,19 @@
         <v>6528</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3356</v>
+        <v>3129</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12497</v>
+        <v>11740</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.007793055905978857</v>
+        <v>0.007793055905978858</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00400676018813036</v>
+        <v>0.003734822279404098</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01491899517093919</v>
+        <v>0.01401462512454787</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>18361</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12288</v>
+        <v>12483</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>26644</v>
+        <v>27235</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.04538080301499348</v>
+        <v>0.04538080301499349</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03037152398660538</v>
+        <v>0.03085173697254336</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06585281055659931</v>
+        <v>0.0673141999974879</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>41</v>
@@ -3054,19 +3054,19 @@
         <v>22602</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>16621</v>
+        <v>16641</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>29474</v>
+        <v>30019</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0521917221737417</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03838065996250773</v>
+        <v>0.03842586648449777</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06806006217279918</v>
+        <v>0.06931881482892074</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>66</v>
@@ -3075,19 +3075,19 @@
         <v>40963</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>31997</v>
+        <v>31954</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>52060</v>
+        <v>51614</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04890198472841823</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03819846550598122</v>
+        <v>0.0381470435999083</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0621493383300779</v>
+        <v>0.06161609769333946</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>80271</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>67514</v>
+        <v>66683</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>93727</v>
+        <v>93792</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1983956118078637</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1668671013931874</v>
+        <v>0.164811344404007</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2316551046027268</v>
+        <v>0.2318135359459915</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>177</v>
@@ -3125,19 +3125,19 @@
         <v>91593</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>79394</v>
+        <v>79055</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>104224</v>
+        <v>103733</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2115005634286216</v>
+        <v>0.2115005634286217</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1833317720855824</v>
+        <v>0.1825473272272745</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2406671639534391</v>
+        <v>0.2395321347732979</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>286</v>
@@ -3146,19 +3146,19 @@
         <v>171864</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>153831</v>
+        <v>155175</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>191285</v>
+        <v>191807</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2051707496309369</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1836431978060312</v>
+        <v>0.1852479176763363</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2283552625013068</v>
+        <v>0.2289782354411003</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>300909</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>286251</v>
+        <v>285848</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>315589</v>
+        <v>316887</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7437216723807789</v>
+        <v>0.7437216723807787</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7074933955278384</v>
+        <v>0.706496294355932</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7800032228754094</v>
+        <v>0.7832137467548224</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>592</v>
@@ -3196,19 +3196,19 @@
         <v>315645</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>302991</v>
+        <v>302584</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>329823</v>
+        <v>329802</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7288644043779977</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6996438018712451</v>
+        <v>0.6987057528044748</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7616033260148483</v>
+        <v>0.7615538056020178</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1018</v>
@@ -3217,19 +3217,19 @@
         <v>616554</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>596094</v>
+        <v>593443</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>636630</v>
+        <v>634858</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.73604060332336</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7116152537406916</v>
+        <v>0.7084503815191278</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7600067563375433</v>
+        <v>0.757891908609254</v>
       </c>
     </row>
     <row r="39">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4621</v>
+        <v>4145</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002683174648951164</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01005819411651011</v>
+        <v>0.009022133527690303</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3918</v>
+        <v>4070</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001610765744101545</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005118926661980854</v>
+        <v>0.005318428803926825</v>
       </c>
     </row>
     <row r="41">
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2666</v>
+        <v>3015</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001743182904539649</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.008714823373598864</v>
+        <v>0.009857803372380843</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3405,19 +3405,19 @@
         <v>3498</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1482</v>
+        <v>1567</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7172</v>
+        <v>7085</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.007612679537521153</v>
+        <v>0.007612679537521152</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003225688774325678</v>
+        <v>0.003411324727512931</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01561081621249461</v>
+        <v>0.0154208956919201</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>8</v>
@@ -3426,19 +3426,19 @@
         <v>4031</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2055</v>
+        <v>1872</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8040</v>
+        <v>8208</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.005266764239515971</v>
+        <v>0.00526676423951597</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002684965179382948</v>
+        <v>0.002445650510750869</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01050507594978961</v>
+        <v>0.01072444265151664</v>
       </c>
     </row>
     <row r="42">
@@ -3455,19 +3455,19 @@
         <v>13813</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8287</v>
+        <v>7851</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>21501</v>
+        <v>19935</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.04515589830457951</v>
+        <v>0.0451558983045795</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02709182438664545</v>
+        <v>0.02566773210888044</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07029183338838857</v>
+        <v>0.06517105522400503</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>37</v>
@@ -3476,19 +3476,19 @@
         <v>20261</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>14300</v>
+        <v>14279</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>27693</v>
+        <v>28403</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04409890180809706</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03112475480974306</v>
+        <v>0.03107766410456152</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.0602735864500925</v>
+        <v>0.06182058700910278</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>55</v>
@@ -3497,19 +3497,19 @@
         <v>34074</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>26029</v>
+        <v>26098</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>45166</v>
+        <v>43718</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0445213612464589</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03400992761457326</v>
+        <v>0.03409954868826785</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05901509757676685</v>
+        <v>0.05712216905932223</v>
       </c>
     </row>
     <row r="43">
@@ -3526,19 +3526,19 @@
         <v>60168</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>49240</v>
+        <v>50068</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>73776</v>
+        <v>73685</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.1966986636406395</v>
+        <v>0.1966986636406394</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1609749999064703</v>
+        <v>0.1636798343650881</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2411860639020071</v>
+        <v>0.240889740546312</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>168</v>
@@ -3547,19 +3547,19 @@
         <v>85356</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>73172</v>
+        <v>72776</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>98102</v>
+        <v>97861</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.1857806155847825</v>
+        <v>0.1857806155847826</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.159261171007648</v>
+        <v>0.1583992876342008</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2135217768043756</v>
+        <v>0.2129963768455774</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>251</v>
@@ -3568,19 +3568,19 @@
         <v>145524</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>129945</v>
+        <v>129278</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>163121</v>
+        <v>163003</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.1901443315148112</v>
+        <v>0.1901443315148111</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1697881050647723</v>
+        <v>0.1689169193361904</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2131371309270085</v>
+        <v>0.2129821889138643</v>
       </c>
     </row>
     <row r="44">
@@ -3597,19 +3597,19 @@
         <v>231374</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>218588</v>
+        <v>218204</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>243654</v>
+        <v>242577</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.7564022551502416</v>
+        <v>0.7564022551502414</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7146010191677991</v>
+        <v>0.713345685801133</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7965449768685549</v>
+        <v>0.7930248864144209</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>659</v>
@@ -3618,19 +3618,19 @@
         <v>349099</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>334633</v>
+        <v>335793</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>362274</v>
+        <v>362631</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7598246284206479</v>
+        <v>0.7598246284206481</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7283375607573852</v>
+        <v>0.7308637818858541</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.788499557166777</v>
+        <v>0.7892778828188476</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1010</v>
@@ -3639,19 +3639,19 @@
         <v>580474</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>561558</v>
+        <v>562577</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>598040</v>
+        <v>598954</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.7584567772551125</v>
+        <v>0.7584567772551124</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7337415906738136</v>
+        <v>0.7350733989423799</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7814099457308403</v>
+        <v>0.782604001529534</v>
       </c>
     </row>
     <row r="45">
@@ -3743,19 +3743,19 @@
         <v>11380</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5642</v>
+        <v>5590</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>20346</v>
+        <v>20065</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.003253134929890057</v>
+        <v>0.003253134929890056</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001613000546379525</v>
+        <v>0.001598145267696616</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.005816307782538762</v>
+        <v>0.005735936321409812</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>16</v>
@@ -3764,19 +3764,19 @@
         <v>13719</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>7779</v>
+        <v>8040</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>24129</v>
+        <v>22836</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.003694706333015557</v>
+        <v>0.003694706333015558</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.002095064826375334</v>
+        <v>0.002165281776242832</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.006498537086019998</v>
+        <v>0.006150276903886477</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>27</v>
@@ -3785,19 +3785,19 @@
         <v>25098</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>16626</v>
+        <v>17038</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>38076</v>
+        <v>37872</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.003480502051125465</v>
+        <v>0.003480502051125466</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00230561828956806</v>
+        <v>0.002362776990206755</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.005280159642264417</v>
+        <v>0.005251929927119339</v>
       </c>
     </row>
     <row r="47">
@@ -3814,19 +3814,19 @@
         <v>42879</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>31859</v>
+        <v>30868</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>58698</v>
+        <v>58719</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.0122576877769926</v>
+        <v>0.01225768777699259</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.009107435007380824</v>
+        <v>0.008824287495994723</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01678008424827529</v>
+        <v>0.01678612748118945</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>30</v>
@@ -3835,19 +3835,19 @@
         <v>21525</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>14216</v>
+        <v>14828</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>30729</v>
+        <v>32372</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.005797121923980346</v>
+        <v>0.005797121923980348</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.003828614015953337</v>
+        <v>0.003993530089039164</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.008275813523979195</v>
+        <v>0.008718567907504804</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>73</v>
@@ -3856,19 +3856,19 @@
         <v>64404</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>50298</v>
+        <v>49977</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>81915</v>
+        <v>81793</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.008931113073209773</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006975071912823256</v>
+        <v>0.00693047149396847</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01135944256340705</v>
+        <v>0.01134258432815652</v>
       </c>
     </row>
     <row r="48">
@@ -3885,19 +3885,19 @@
         <v>210190</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>180919</v>
+        <v>178992</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>244818</v>
+        <v>245112</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.06008695420431312</v>
+        <v>0.06008695420431311</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.05171925346480091</v>
+        <v>0.05116841118420952</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.06998605696575243</v>
+        <v>0.07007027066594951</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>227</v>
@@ -3906,19 +3906,19 @@
         <v>168289</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>146107</v>
+        <v>146053</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>194463</v>
+        <v>194016</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.04532366815887302</v>
+        <v>0.04532366815887303</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.0393496809929175</v>
+        <v>0.03933495303246314</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.05237280507534764</v>
+        <v>0.05225250103048678</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>410</v>
@@ -3927,19 +3927,19 @@
         <v>378479</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>339937</v>
+        <v>339457</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>418964</v>
+        <v>420783</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.05248527115969671</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.04714044654971473</v>
+        <v>0.04707398872678421</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.05809948513475208</v>
+        <v>0.05835179014323693</v>
       </c>
     </row>
     <row r="49">
@@ -3956,19 +3956,19 @@
         <v>772187</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>720520</v>
+        <v>719087</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>827144</v>
+        <v>829621</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.2207451285071791</v>
+        <v>0.220745128507179</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2059748938472676</v>
+        <v>0.2055653407246993</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2364555189442946</v>
+        <v>0.2371638546335566</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1138</v>
@@ -3977,19 +3977,19 @@
         <v>744575</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>703658</v>
+        <v>704198</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>789996</v>
+        <v>787601</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2005290436353799</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1895093677194469</v>
+        <v>0.1896548113352848</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2127618572587685</v>
+        <v>0.2121170109302479</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1867</v>
@@ -3998,19 +3998,19 @@
         <v>1516762</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1449101</v>
+        <v>1454244</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1585907</v>
+        <v>1586074</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.2103357745784209</v>
+        <v>0.210335774578421</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2009528734465256</v>
+        <v>0.2016661211521536</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2199243637565376</v>
+        <v>0.2199476123908442</v>
       </c>
     </row>
     <row r="50">
@@ -4027,19 +4027,19 @@
         <v>2461459</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2402581</v>
+        <v>2401448</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2528074</v>
+        <v>2517065</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.7036570945816252</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.686825833710474</v>
+        <v>0.6865019216666511</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7227003506496534</v>
+        <v>0.7195534144630547</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>3918</v>
@@ -4048,19 +4048,19 @@
         <v>2764944</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2712618</v>
+        <v>2718694</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>2811602</v>
+        <v>2808562</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7446554599487509</v>
+        <v>0.7446554599487514</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.7305629795433276</v>
+        <v>0.7321992480277306</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7572213299613186</v>
+        <v>0.7564024256635749</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>6302</v>
@@ -4069,19 +4069,19 @@
         <v>5226403</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5152246</v>
+        <v>5148796</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>5300539</v>
+        <v>5295427</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.724767339137547</v>
+        <v>0.7247673391375472</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7144836295068384</v>
+        <v>0.7140052862934174</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7350480806170421</v>
+        <v>0.7343391490953848</v>
       </c>
     </row>
     <row r="51">
